--- a/data/trans_orig/P2A_senso_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P2A_senso_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>6204</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2632</v>
+        <v>2700</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>14771</v>
+        <v>13414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01309386812843845</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005554493740580284</v>
+        <v>0.005699089702648744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03117707597682162</v>
+        <v>0.02831343822513855</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -765,19 +765,19 @@
         <v>6678</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2800</v>
+        <v>2843</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>12562</v>
+        <v>12542</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02177469363254309</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009131061993505831</v>
+        <v>0.009269605343231273</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04095964846682403</v>
+        <v>0.04089501931827603</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>13</v>
@@ -786,19 +786,19 @@
         <v>12881</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6734</v>
+        <v>7104</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21255</v>
+        <v>22595</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01650499713279222</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008627840104282594</v>
+        <v>0.009102811610261163</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.027233914696293</v>
+        <v>0.02895150119471535</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>467572</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>459005</v>
+        <v>460362</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>471144</v>
+        <v>471076</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9869061318715615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9688229240231785</v>
+        <v>0.9716865617748615</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9944455062594197</v>
+        <v>0.9943009102973511</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>291</v>
@@ -836,19 +836,19 @@
         <v>300002</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>294118</v>
+        <v>294138</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>303880</v>
+        <v>303837</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9782253063674569</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.959040351533176</v>
+        <v>0.9591049806817242</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9908689380064942</v>
+        <v>0.9907303946567687</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>740</v>
@@ -857,19 +857,19 @@
         <v>767576</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>759202</v>
+        <v>757862</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>773723</v>
+        <v>773353</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9834950028672078</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.972766085303707</v>
+        <v>0.971048498805285</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9913721598957175</v>
+        <v>0.9908971883897389</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>6808</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2905</v>
+        <v>2775</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13232</v>
+        <v>13553</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.01855418829866778</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.007917065437275233</v>
+        <v>0.007563055962295628</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03606114436426736</v>
+        <v>0.03693643282003052</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -982,19 +982,19 @@
         <v>3066</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>936</v>
+        <v>919</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9348</v>
+        <v>8808</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.008244253246376274</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002517100051045357</v>
+        <v>0.002471910095492949</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02513681712659642</v>
+        <v>0.02368603440134733</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>10</v>
@@ -1003,19 +1003,19 @@
         <v>9874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4870</v>
+        <v>4951</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17604</v>
+        <v>18080</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01336481665110621</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006591331170576428</v>
+        <v>0.006701406291056478</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02382786071824386</v>
+        <v>0.02447209930727131</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>360126</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>353702</v>
+        <v>353381</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>364029</v>
+        <v>364159</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9814458117013323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9639388556357327</v>
+        <v>0.9630635671799697</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9920829345627248</v>
+        <v>0.9924369440377043</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -1053,19 +1053,19 @@
         <v>368799</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>362517</v>
+        <v>363057</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>370929</v>
+        <v>370946</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9917557467536238</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9748631828734037</v>
+        <v>0.9763139655986536</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9974828999489547</v>
+        <v>0.997528089904507</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>703</v>
@@ -1074,19 +1074,19 @@
         <v>728925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>721195</v>
+        <v>720719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733929</v>
+        <v>733848</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9866351833488938</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9761721392817565</v>
+        <v>0.9755279006927289</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9934086688294236</v>
+        <v>0.9932985937089436</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>5055</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1674</v>
+        <v>1855</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11081</v>
+        <v>11917</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009320287010746367</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003086543990498716</v>
+        <v>0.003419926706867054</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02042912043961646</v>
+        <v>0.02197124503048143</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1199,19 +1199,19 @@
         <v>3154</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8235</v>
+        <v>8538</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01880086889940599</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005594552523283794</v>
+        <v>0.005559422994685045</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04908219748699128</v>
+        <v>0.05089026166919786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1220,19 +1220,19 @@
         <v>8210</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3152</v>
+        <v>3260</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14947</v>
+        <v>15014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01156012799298591</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004438269089877205</v>
+        <v>0.004590041735612036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02104653215082166</v>
+        <v>0.02114204196190251</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>537334</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>531308</v>
+        <v>530472</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>540715</v>
+        <v>540534</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9906797129892536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9795708795603835</v>
+        <v>0.9780287549695184</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9969134560094971</v>
+        <v>0.9965800732931329</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>161</v>
@@ -1270,19 +1270,19 @@
         <v>164628</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>159547</v>
+        <v>159244</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>166843</v>
+        <v>166849</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.981199131100594</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9509178025130086</v>
+        <v>0.9491097383308019</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9944054474767162</v>
+        <v>0.994440577005315</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>688</v>
@@ -1291,19 +1291,19 @@
         <v>701961</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>695224</v>
+        <v>695157</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>707019</v>
+        <v>706911</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9884398720070141</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9789534678491784</v>
+        <v>0.9788579580380978</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9955617309101228</v>
+        <v>0.9954099582643882</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>21913</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14129</v>
+        <v>13739</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>33098</v>
+        <v>32429</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01769545650467573</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0114094713440014</v>
+        <v>0.01109501858116433</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02672784204376238</v>
+        <v>0.02618791034807574</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -1416,19 +1416,19 @@
         <v>10540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5175</v>
+        <v>5279</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>18914</v>
+        <v>18562</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01475553529937975</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.007244374820042191</v>
+        <v>0.007391203061193811</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02647952884333019</v>
+        <v>0.02598671899700174</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>32</v>
@@ -1437,19 +1437,19 @@
         <v>32453</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>22340</v>
+        <v>22765</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>45041</v>
+        <v>45257</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01662000768281084</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01144109887153312</v>
+        <v>0.01165878186067958</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02306708096835525</v>
+        <v>0.02317775620911517</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>1216421</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1205236</v>
+        <v>1205905</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1224205</v>
+        <v>1224595</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9823045434953243</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9732721579562376</v>
+        <v>0.9738120896519243</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9885905286559986</v>
+        <v>0.9889049814188356</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>684</v>
@@ -1487,19 +1487,19 @@
         <v>703745</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>695371</v>
+        <v>695723</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>709110</v>
+        <v>709006</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9852444647006202</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9735204711566691</v>
+        <v>0.9740132810029978</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9927556251799579</v>
+        <v>0.9926087969388061</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1886</v>
@@ -1508,19 +1508,19 @@
         <v>1920167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1907579</v>
+        <v>1907363</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1930280</v>
+        <v>1929855</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9833799923171892</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9769329190316447</v>
+        <v>0.9768222437908848</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9885589011284668</v>
+        <v>0.9883412181393204</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>8266</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3640</v>
+        <v>3611</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16759</v>
+        <v>17088</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02358006655823967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01038415520525563</v>
+        <v>0.01030167582969306</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04780667013142397</v>
+        <v>0.04874416648593204</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>7</v>
@@ -1633,19 +1633,19 @@
         <v>7293</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3006</v>
+        <v>3012</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14562</v>
+        <v>13912</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0128234284444817</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005285345355191497</v>
+        <v>0.005296532020911552</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02560325529552786</v>
+        <v>0.0244597801762537</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>15</v>
@@ -1654,19 +1654,19 @@
         <v>15559</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>8934</v>
+        <v>9253</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25264</v>
+        <v>24618</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01692520915688388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009717912627735642</v>
+        <v>0.01006541633505005</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0274812268543073</v>
+        <v>0.02677917500006331</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>342289</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>333796</v>
+        <v>333467</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>346915</v>
+        <v>346944</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9764199334417604</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.952193329868577</v>
+        <v>0.9512558335140679</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9896158447947444</v>
+        <v>0.9896983241703069</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>532</v>
@@ -1704,19 +1704,19 @@
         <v>561459</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>554190</v>
+        <v>554840</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>565746</v>
+        <v>565740</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9871765715555183</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9743967447044724</v>
+        <v>0.9755402198237466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9947146546448086</v>
+        <v>0.9947034679790885</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>864</v>
@@ -1725,19 +1725,19 @@
         <v>903748</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>894043</v>
+        <v>894689</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>910373</v>
+        <v>910054</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9830747908431161</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9725187731456935</v>
+        <v>0.9732208249999367</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9902820873722644</v>
+        <v>0.9899345836649499</v>
       </c>
     </row>
     <row r="18">
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7792</v>
+        <v>8894</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.008276563325340613</v>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02612861419006763</v>
+        <v>0.0298257745913345</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>24</v>
@@ -1850,19 +1850,19 @@
         <v>25288</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>15647</v>
+        <v>15616</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35533</v>
+        <v>35979</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0202502079929971</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0125303333106647</v>
+        <v>0.0125053265126965</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0284543726547307</v>
+        <v>0.02881167108183483</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -1871,19 +1871,19 @@
         <v>27756</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>18676</v>
+        <v>18695</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40495</v>
+        <v>40119</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01794210271432229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01207273958863493</v>
+        <v>0.01208476489757628</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02617722864246577</v>
+        <v>0.02593433655501109</v>
       </c>
     </row>
     <row r="20">
@@ -1900,7 +1900,7 @@
         <v>295733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>290409</v>
+        <v>289307</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>298201</v>
@@ -1909,7 +1909,7 @@
         <v>0.9917234366746593</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9738713858099323</v>
+        <v>0.9701742254086653</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -1921,19 +1921,19 @@
         <v>1223472</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1213227</v>
+        <v>1212781</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1233113</v>
+        <v>1233144</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9797497920070029</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9715456273452693</v>
+        <v>0.971188328918165</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9874696666893351</v>
+        <v>0.987494673487303</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1518</v>
@@ -1942,19 +1942,19 @@
         <v>1519204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1506465</v>
+        <v>1506841</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1528284</v>
+        <v>1528265</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9820578972856777</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9738227713575344</v>
+        <v>0.9740656634449889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9879272604113651</v>
+        <v>0.9879152351024237</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>50714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>36890</v>
+        <v>37504</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67273</v>
+        <v>66329</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01550797906225381</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01128079830256808</v>
+        <v>0.01146849741882562</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02057164105001629</v>
+        <v>0.02028304868958495</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>54</v>
@@ -2067,19 +2067,19 @@
         <v>56019</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>42076</v>
+        <v>43237</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72504</v>
+        <v>72334</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01658278974494288</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01245551184566774</v>
+        <v>0.01279898693806788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02146281091458287</v>
+        <v>0.02141237072190498</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>104</v>
@@ -2088,19 +2088,19 @@
         <v>106733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>88582</v>
+        <v>87552</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>129110</v>
+        <v>131009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01605410906968608</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01332404105683668</v>
+        <v>0.01316903526454053</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01941990417455522</v>
+        <v>0.01970552826043187</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>3219476</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3202917</v>
+        <v>3203861</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3233300</v>
+        <v>3232686</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9844920209377462</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9794283589499837</v>
+        <v>0.9797169513104151</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9887192016974319</v>
+        <v>0.9885315025811744</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3242</v>
@@ -2138,19 +2138,19 @@
         <v>3322105</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3305620</v>
+        <v>3305790</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3336048</v>
+        <v>3334887</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9834172102550571</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9785371890854172</v>
+        <v>0.9785876292780951</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9875444881543324</v>
+        <v>0.9872010130619322</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6399</v>
@@ -2159,19 +2159,19 @@
         <v>6541581</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6519204</v>
+        <v>6517305</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6559732</v>
+        <v>6560762</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9839458909303139</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9805800958254447</v>
+        <v>0.9802944717395681</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9866759589431633</v>
+        <v>0.9868309647354594</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>7958</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3859</v>
+        <v>3147</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15898</v>
+        <v>16990</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01820167942348517</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.008825727109109768</v>
+        <v>0.007197373907446054</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0363614969467134</v>
+        <v>0.03885889292352027</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>8</v>
@@ -2526,19 +2526,19 @@
         <v>10001</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4631</v>
+        <v>4427</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>18555</v>
+        <v>18672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03180376681887237</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01472809339932929</v>
+        <v>0.01407703485557305</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05900846886337494</v>
+        <v>0.05937877457845077</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -2547,19 +2547,19 @@
         <v>17959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10515</v>
+        <v>10296</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>29520</v>
+        <v>29993</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02389202559678645</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01398924534693708</v>
+        <v>0.0136976603604697</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03927346906498007</v>
+        <v>0.03990184043103127</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>429253</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>421313</v>
+        <v>420221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>433352</v>
+        <v>434064</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9817983205765148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9636385030532866</v>
+        <v>0.9611411070764803</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9911742728908902</v>
+        <v>0.992802626092554</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>275</v>
@@ -2597,19 +2597,19 @@
         <v>304453</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>295899</v>
+        <v>295782</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>309823</v>
+        <v>310027</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9681962331811277</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9409915311366249</v>
+        <v>0.9406212254215491</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9852719066006707</v>
+        <v>0.9859229651444269</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>672</v>
@@ -2618,19 +2618,19 @@
         <v>733706</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>722145</v>
+        <v>721672</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>741150</v>
+        <v>741369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9761079744032135</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9607265309350201</v>
+        <v>0.9600981595689693</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9860107546530629</v>
+        <v>0.9863023396395305</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>2858</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9231</v>
+        <v>7619</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.006824168311505747</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002048449748603916</v>
+        <v>0.002051557895236156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02204065558724898</v>
+        <v>0.01819270543591153</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -2743,19 +2743,19 @@
         <v>4158</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1101</v>
+        <v>1019</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>10664</v>
+        <v>10331</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01230120141290731</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.003257398474717178</v>
+        <v>0.00301359274126049</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03155069496288109</v>
+        <v>0.03056348166926522</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -2764,19 +2764,19 @@
         <v>7016</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3028</v>
+        <v>2885</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13257</v>
+        <v>13602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.009270360526199407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.004001272212805204</v>
+        <v>0.003812341759020881</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01751700459057608</v>
+        <v>0.01797310555700035</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>415939</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>409566</v>
+        <v>411178</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417939</v>
+        <v>417938</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9931758316884942</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9779593444127513</v>
+        <v>0.9818072945640886</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.997951550251396</v>
+        <v>0.9979484421047639</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>301</v>
@@ -2814,19 +2814,19 @@
         <v>333853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>327347</v>
+        <v>327680</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>336910</v>
+        <v>336992</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9876987985870926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.968449305037119</v>
+        <v>0.9694365183307347</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9967426015252828</v>
+        <v>0.9969864072587395</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>673</v>
@@ -2835,19 +2835,19 @@
         <v>749792</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>743551</v>
+        <v>743206</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>753780</v>
+        <v>753923</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9907296394738005</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9824829954094242</v>
+        <v>0.9820268944429998</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9959987277871949</v>
+        <v>0.9961876582409791</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>12565</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6372</v>
+        <v>6231</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>22537</v>
+        <v>21970</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01996254008358285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01012437933326121</v>
+        <v>0.009899587231366752</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03580603301688205</v>
+        <v>0.03490614470795522</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -2960,19 +2960,19 @@
         <v>5946</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2050</v>
+        <v>2732</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12828</v>
+        <v>12810</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.02285783281721472</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007878793296830926</v>
+        <v>0.0105018700917766</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04931485344038646</v>
+        <v>0.04924651028831306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -2981,19 +2981,19 @@
         <v>18511</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11013</v>
+        <v>11175</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>29193</v>
+        <v>29545</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02080921055412385</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01238049043342184</v>
+        <v>0.01256312006920383</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03281749226552955</v>
+        <v>0.03321364700881171</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>616850</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>606878</v>
+        <v>607445</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>623043</v>
+        <v>623184</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9800374599164171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.964193966983118</v>
+        <v>0.9650938552920448</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9898756206667388</v>
+        <v>0.9901004127686334</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>238</v>
@@ -3031,19 +3031,19 @@
         <v>254183</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247301</v>
+        <v>247319</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>258079</v>
+        <v>257397</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9771421671827852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9506851465596134</v>
+        <v>0.9507534897116869</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9921212067031691</v>
+        <v>0.9894981299082233</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>818</v>
@@ -3052,19 +3052,19 @@
         <v>871033</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>860351</v>
+        <v>859999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>878531</v>
+        <v>878369</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9791907894458761</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9671825077344703</v>
+        <v>0.9667863529911884</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9876195095665781</v>
+        <v>0.9874368799307962</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>22933</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>14445</v>
+        <v>14748</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>35058</v>
+        <v>34217</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01978711111043257</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01246339649445603</v>
+        <v>0.01272429349826754</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.03024784377678165</v>
+        <v>0.02952305075079204</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>16</v>
@@ -3177,19 +3177,19 @@
         <v>18594</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>10521</v>
+        <v>10699</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>28505</v>
+        <v>30158</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02425363793832198</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01372312779603444</v>
+        <v>0.01395597289324405</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03718140374805051</v>
+        <v>0.03933675723247489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -3198,19 +3198,19 @@
         <v>41528</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29949</v>
+        <v>29222</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56684</v>
+        <v>58042</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02156535032927307</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0155526869383422</v>
+        <v>0.01517488052121879</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02943629070794576</v>
+        <v>0.03014139195677797</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>1136076</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1123951</v>
+        <v>1124792</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1144564</v>
+        <v>1144261</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9802128888895675</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9697521562232181</v>
+        <v>0.9704769492492079</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.987536603505544</v>
+        <v>0.9872757065017325</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>695</v>
@@ -3248,19 +3248,19 @@
         <v>748063</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>738152</v>
+        <v>736499</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>756136</v>
+        <v>755958</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.975746362061678</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9628185962519494</v>
+        <v>0.960663242767525</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9862768722039654</v>
+        <v>0.9860440271067559</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -3269,19 +3269,19 @@
         <v>1884139</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1868983</v>
+        <v>1867625</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1895718</v>
+        <v>1896445</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9784346496707269</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.970563709292054</v>
+        <v>0.969858608043222</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9844473130616577</v>
+        <v>0.9848251194787812</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>5277</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2034</v>
+        <v>2076</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11946</v>
+        <v>12571</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01033438228093609</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003982809416100648</v>
+        <v>0.004065547227363255</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02339663227956105</v>
+        <v>0.02462098752389394</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -3394,19 +3394,19 @@
         <v>14497</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>8038</v>
+        <v>8124</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24673</v>
+        <v>24610</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01903714209549227</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01055455025541594</v>
+        <v>0.01066833999533689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03239906962777649</v>
+        <v>0.03231667659430625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -3415,19 +3415,19 @@
         <v>19774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11923</v>
+        <v>12364</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31555</v>
+        <v>30972</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01554407238192562</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.009372470708591875</v>
+        <v>0.009719141105852369</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02480512480196714</v>
+        <v>0.02434685887065403</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>505319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>498650</v>
+        <v>498025</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>508562</v>
+        <v>508520</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9896656177190639</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9766033677204389</v>
+        <v>0.975379012476106</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9960171905838994</v>
+        <v>0.9959344527726367</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>690</v>
@@ -3465,19 +3465,19 @@
         <v>747025</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>736849</v>
+        <v>736912</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>753484</v>
+        <v>753398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9809628579045078</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9676009303722235</v>
+        <v>0.9676833234056937</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.989445449744584</v>
+        <v>0.9893316600046631</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1172</v>
@@ -3486,19 +3486,19 @@
         <v>1252344</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1240563</v>
+        <v>1241146</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1260195</v>
+        <v>1259754</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9844559276180744</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9751948751980326</v>
+        <v>0.9756531411293461</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.990627529291408</v>
+        <v>0.9902808588941479</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>5161</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1794</v>
+        <v>1063</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14587</v>
+        <v>13665</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01933945216048408</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00672147865655747</v>
+        <v>0.003981569615564148</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.05465582188539736</v>
+        <v>0.05120370067720357</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>22</v>
@@ -3611,19 +3611,19 @@
         <v>22707</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>14533</v>
+        <v>14588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>33892</v>
+        <v>34125</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02046912215063484</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01310036542959526</v>
+        <v>0.01315025516635043</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.03055142092450509</v>
+        <v>0.03076089607888317</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>26</v>
@@ -3632,19 +3632,19 @@
         <v>27869</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>19244</v>
+        <v>18940</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>40655</v>
+        <v>40001</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02025005425799229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01398286991109404</v>
+        <v>0.01376218881460172</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02954044072945225</v>
+        <v>0.02906540479888719</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>261721</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>252295</v>
+        <v>253217</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>265088</v>
+        <v>265819</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.980660547839516</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9453441781146026</v>
+        <v>0.9487962993227964</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9932785213434425</v>
+        <v>0.9960184303844358</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1022</v>
@@ -3682,19 +3682,19 @@
         <v>1086644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1075459</v>
+        <v>1075226</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1094818</v>
+        <v>1094763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9795308778493652</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9694485790754952</v>
+        <v>0.9692391039211163</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9868996345704047</v>
+        <v>0.9868497448336495</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1283</v>
@@ -3703,19 +3703,19 @@
         <v>1348364</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1335578</v>
+        <v>1336232</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1356989</v>
+        <v>1357293</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9797499457420077</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9704595592705472</v>
+        <v>0.9709345952011122</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9860171300889058</v>
+        <v>0.9862378111853981</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>56752</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>41353</v>
+        <v>42908</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72811</v>
+        <v>74333</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0165849255136534</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01208482838458855</v>
+        <v>0.01253911399056332</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0212778225615082</v>
+        <v>0.02172269536112799</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -3828,19 +3828,19 @@
         <v>75904</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57562</v>
+        <v>59911</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>94233</v>
+        <v>96879</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.02138055359631134</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01621409639291902</v>
+        <v>0.01687570535453878</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02654367690207208</v>
+        <v>0.02728887733229031</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>120</v>
@@ -3849,19 +3849,19 @@
         <v>132656</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>110483</v>
+        <v>110396</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>160960</v>
+        <v>160559</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01902683520883437</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01584665585209442</v>
+        <v>0.01583417570057862</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02308652475569642</v>
+        <v>0.02302894520062295</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>3365158</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3349099</v>
+        <v>3347577</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3380557</v>
+        <v>3379002</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9834150744863466</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9787221774384917</v>
+        <v>0.978277304638872</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9879151716154114</v>
+        <v>0.9874608860094366</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3221</v>
@@ -3899,19 +3899,19 @@
         <v>3474221</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3455892</v>
+        <v>3453246</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3492563</v>
+        <v>3490214</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9786194464036887</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9734563230979277</v>
+        <v>0.9727111226677095</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9837859036070805</v>
+        <v>0.9831242946454611</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6375</v>
@@ -3920,19 +3920,19 @@
         <v>6839379</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6811075</v>
+        <v>6811476</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6861552</v>
+        <v>6861639</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9809731647911656</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9769134752443036</v>
+        <v>0.9769710547993771</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9841533441479056</v>
+        <v>0.9841658242994212</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>2628</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7083</v>
+        <v>6606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006124773795806223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.001799101454491574</v>
+        <v>0.001818171352362029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0165069587566613</v>
+        <v>0.01539596955985501</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -4290,7 +4290,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4434</v>
+        <v>5064</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.00271858697103695</v>
@@ -4299,7 +4299,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01277674174873961</v>
+        <v>0.01459200930541864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4308,19 +4308,19 @@
         <v>3572</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>899</v>
+        <v>943</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8750</v>
+        <v>8582</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004601693790913589</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001157693186442878</v>
+        <v>0.001214453156978576</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01127326800855319</v>
+        <v>0.01105776706960418</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>426464</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422009</v>
+        <v>422486</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>428320</v>
+        <v>428312</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9938752262041938</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9834930412433387</v>
+        <v>0.984604030440146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9982008985455084</v>
+        <v>0.9981818286476379</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>331</v>
@@ -4358,7 +4358,7 @@
         <v>346112</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>342621</v>
+        <v>341991</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>347055</v>
@@ -4367,7 +4367,7 @@
         <v>0.997281413028963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9872232582512599</v>
+        <v>0.9854079906945806</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -4379,19 +4379,19 @@
         <v>772575</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>767397</v>
+        <v>767565</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>775248</v>
+        <v>775204</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9953983062090864</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.988726731991445</v>
+        <v>0.9889422329303957</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9988423068135571</v>
+        <v>0.9987855468430215</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>3093</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>8997</v>
+        <v>8382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.008199992555991522</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.002540393844067595</v>
+        <v>0.002536274288550721</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.02385042503097407</v>
+        <v>0.02222113079022905</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -4504,19 +4504,19 @@
         <v>5951</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2868</v>
+        <v>2014</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12111</v>
+        <v>12144</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01598684209515635</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.007704974314000782</v>
+        <v>0.005409290745017353</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03253200233122264</v>
+        <v>0.03262091135979772</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -4525,19 +4525,19 @@
         <v>9045</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4691</v>
+        <v>4062</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>17297</v>
+        <v>16166</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0120676842302968</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.006258717402536304</v>
+        <v>0.005420198453173994</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.02307837169177805</v>
+        <v>0.02156970251871512</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>374134</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>368230</v>
+        <v>368845</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>376269</v>
+        <v>376270</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9918000074440084</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.976149574969026</v>
+        <v>0.9777788692097711</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9974596061559324</v>
+        <v>0.9974637257114493</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>346</v>
@@ -4575,19 +4575,19 @@
         <v>366322</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>360162</v>
+        <v>360129</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>369405</v>
+        <v>370259</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9840131579048437</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9674679976687776</v>
+        <v>0.9673790886402025</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9922950256859993</v>
+        <v>0.9945907092549826</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>697</v>
@@ -4596,19 +4596,19 @@
         <v>740455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>732203</v>
+        <v>733334</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>744809</v>
+        <v>745438</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9879323157697032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9769216283082215</v>
+        <v>0.9784302974812848</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9937412825974634</v>
+        <v>0.9945798015468259</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>5862</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2075</v>
+        <v>2068</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13331</v>
+        <v>12724</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01123254851552586</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003975899197512194</v>
+        <v>0.003962056939270707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02554305303078892</v>
+        <v>0.02437948963619758</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1</v>
@@ -4724,7 +4724,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11698</v>
+        <v>10029</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01264872946862774</v>
@@ -4733,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07041971705929705</v>
+        <v>0.06037000380513247</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -4742,19 +4742,19 @@
         <v>7964</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3171</v>
+        <v>2703</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>17136</v>
+        <v>18003</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01157447798124848</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004608770551445447</v>
+        <v>0.003928480971910047</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02490504345102062</v>
+        <v>0.02616539684827546</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>516052</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>508583</v>
+        <v>509190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>519839</v>
+        <v>519846</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9887674514844741</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.974456946969211</v>
+        <v>0.9756205103638024</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9960241008024878</v>
+        <v>0.9960379430607292</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>152</v>
@@ -4792,7 +4792,7 @@
         <v>164022</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>154425</v>
+        <v>156094</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>166123</v>
@@ -4801,7 +4801,7 @@
         <v>0.9873512705313723</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9295802829407041</v>
+        <v>0.9396299961948674</v>
       </c>
       <c r="P11" s="6" t="n">
         <v>1</v>
@@ -4813,19 +4813,19 @@
         <v>680072</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>670900</v>
+        <v>670033</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>684865</v>
+        <v>685333</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9884255220187516</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9750949565489789</v>
+        <v>0.9738346031517243</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9953912294485545</v>
+        <v>0.99607151902809</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>11516</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5518</v>
+        <v>5872</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22269</v>
+        <v>22470</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01001676302912369</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004799588199176573</v>
+        <v>0.005107486762515536</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01937005342389653</v>
+        <v>0.01954523139719959</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>9</v>
@@ -4938,19 +4938,19 @@
         <v>9423</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4304</v>
+        <v>4593</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>17284</v>
+        <v>17670</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01140934875121533</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.005211162983530305</v>
+        <v>0.005561546676642313</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02092779610441668</v>
+        <v>0.0213956969629565</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>18</v>
@@ -4959,19 +4959,19 @@
         <v>20938</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>11940</v>
+        <v>12681</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>33899</v>
+        <v>33038</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01059894204437223</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.006043977177130629</v>
+        <v>0.006418994459151642</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01715945882060918</v>
+        <v>0.01672359499024107</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>1138122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1127369</v>
+        <v>1127168</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1144120</v>
+        <v>1143766</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9899832369708763</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9806299465761035</v>
+        <v>0.9804547686028009</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9952004118008235</v>
+        <v>0.9948925132374845</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>789</v>
@@ -5009,19 +5009,19 @@
         <v>816453</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>808592</v>
+        <v>808206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>821572</v>
+        <v>821283</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9885906512487846</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9790722038955829</v>
+        <v>0.9786043030370435</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9947888370164696</v>
+        <v>0.9944384533233577</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1883</v>
@@ -5030,19 +5030,19 @@
         <v>1954576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1941615</v>
+        <v>1942476</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1963574</v>
+        <v>1962833</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9894010579556277</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9828405411793909</v>
+        <v>0.983276405009759</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9939560228228693</v>
+        <v>0.9935810055408483</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>9456</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4238</v>
+        <v>4639</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>17949</v>
+        <v>18089</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01523467681151976</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006827766233441012</v>
+        <v>0.007473264711385442</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02891640850241294</v>
+        <v>0.02914328897661871</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -5155,19 +5155,19 @@
         <v>9080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4354</v>
+        <v>4273</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16508</v>
+        <v>16737</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01229933600270816</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005897372417973728</v>
+        <v>0.00578857328122391</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02236156418442234</v>
+        <v>0.02267144677244028</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -5176,19 +5176,19 @@
         <v>18536</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10962</v>
+        <v>10638</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29164</v>
+        <v>29266</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01364006471840231</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008066251428398771</v>
+        <v>0.007828445351719069</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02146066812507743</v>
+        <v>0.02153553306226167</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>611250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>602757</v>
+        <v>602617</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>616468</v>
+        <v>616067</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9847653231884802</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9710835914975871</v>
+        <v>0.9708567110233816</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9931722337665589</v>
+        <v>0.9925267352886147</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>690</v>
@@ -5226,19 +5226,19 @@
         <v>729164</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>721736</v>
+        <v>721507</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>733890</v>
+        <v>733971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9877006639972918</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9776384358155784</v>
+        <v>0.9773285532275597</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9941026275820264</v>
+        <v>0.994211426718776</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1279</v>
@@ -5247,19 +5247,19 @@
         <v>1340414</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1329786</v>
+        <v>1329684</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1347988</v>
+        <v>1348312</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9863599352815977</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9785393318749226</v>
+        <v>0.9784644669377384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9919337485716012</v>
+        <v>0.9921715546482809</v>
       </c>
     </row>
     <row r="18">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5780</v>
+        <v>6702</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.006604133778248534</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02012867204911786</v>
+        <v>0.02334058779593369</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>9</v>
@@ -5372,19 +5372,19 @@
         <v>10223</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5504</v>
+        <v>4731</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19320</v>
+        <v>17736</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.009447930879272957</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.005087006435274741</v>
+        <v>0.004372012804750398</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01785520297318264</v>
+        <v>0.0163917877780072</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>11</v>
@@ -5393,19 +5393,19 @@
         <v>12119</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6392</v>
+        <v>6682</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20982</v>
+        <v>20308</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.008851523904178302</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004668610445821514</v>
+        <v>0.004880617619179535</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01532477267839999</v>
+        <v>0.01483229293983614</v>
       </c>
     </row>
     <row r="20">
@@ -5422,7 +5422,7 @@
         <v>285249</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>281365</v>
+        <v>280443</v>
       </c>
       <c r="F20" s="5" t="n">
         <v>287145</v>
@@ -5431,7 +5431,7 @@
         <v>0.9933958662217515</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9798713279508819</v>
+        <v>0.9766594122040665</v>
       </c>
       <c r="I20" s="6" t="n">
         <v>1</v>
@@ -5443,19 +5443,19 @@
         <v>1071802</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1062705</v>
+        <v>1064289</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1076521</v>
+        <v>1077294</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.990552069120727</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9821447970268172</v>
+        <v>0.9836082122219927</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9949129935647253</v>
+        <v>0.9956279871952496</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1253</v>
@@ -5464,19 +5464,19 @@
         <v>1357051</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1348188</v>
+        <v>1348862</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1362778</v>
+        <v>1362488</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9911484760958217</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9846752273216001</v>
+        <v>0.985167707060164</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9953313895541785</v>
+        <v>0.9951193823808205</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>34452</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>23099</v>
+        <v>23940</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48687</v>
+        <v>48349</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01017567980730884</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.006822495373923688</v>
+        <v>0.007071008752274456</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.0143801620661018</v>
+        <v>0.01428015470930607</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>35</v>
@@ -5589,19 +5589,19 @@
         <v>37722</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26363</v>
+        <v>26488</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>52448</v>
+        <v>52741</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01068121351374507</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007464780286538172</v>
+        <v>0.00750035567035688</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01485093727877438</v>
+        <v>0.0149340861757344</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>65</v>
@@ -5610,19 +5610,19 @@
         <v>72174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>56597</v>
+        <v>55669</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>90599</v>
+        <v>92970</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01043377705528798</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.00818195781268315</v>
+        <v>0.008047832513832648</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.013097458682788</v>
+        <v>0.01344017222551315</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>3351270</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3337035</v>
+        <v>3337373</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3362623</v>
+        <v>3361782</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9898243201926912</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9856198379338982</v>
+        <v>0.985719845290694</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9931775046260766</v>
+        <v>0.9929289912477256</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3291</v>
@@ -5660,19 +5660,19 @@
         <v>3493874</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3479148</v>
+        <v>3478855</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3505233</v>
+        <v>3505108</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.9893187864862549</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9851490627212256</v>
+        <v>0.9850659138242652</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9925352197134618</v>
+        <v>0.9924996443296431</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6485</v>
@@ -5681,19 +5681,19 @@
         <v>6845144</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6826719</v>
+        <v>6824348</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6860721</v>
+        <v>6861649</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.989566222944712</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.986902541317212</v>
+        <v>0.9865598277744868</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9918180421873168</v>
+        <v>0.9919521674861674</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>10870</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5496</v>
+        <v>5558</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>18528</v>
+        <v>18106</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01974096318024295</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009981856080694674</v>
+        <v>0.01009462698687764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03364916072570665</v>
+        <v>0.03288225008881111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -6048,19 +6048,19 @@
         <v>10955</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6551</v>
+        <v>6623</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17462</v>
+        <v>17707</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.02243085452155804</v>
+        <v>0.02243085452155803</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01341249566391402</v>
+        <v>0.01356038720011654</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03575308611972932</v>
+        <v>0.03625478913389996</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -6069,19 +6069,19 @@
         <v>21825</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15086</v>
+        <v>14689</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31693</v>
+        <v>31406</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.02100538604096299</v>
+        <v>0.02100538604096298</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01451911739111364</v>
+        <v>0.01413760901842601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0305021383222176</v>
+        <v>0.03022655943756521</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>539748</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>532090</v>
+        <v>532512</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>545122</v>
+        <v>545060</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9802590368197571</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9663508392742933</v>
+        <v>0.9671177499111874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9900181439193052</v>
+        <v>0.9899053730131222</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>669</v>
@@ -6119,19 +6119,19 @@
         <v>477456</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>470949</v>
+        <v>470704</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>481860</v>
+        <v>481788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.977569145478442</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9642469138802706</v>
+        <v>0.9637452108661002</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.986587504336086</v>
+        <v>0.9864396127998835</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1211</v>
@@ -6140,19 +6140,19 @@
         <v>1017204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1007336</v>
+        <v>1007623</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1023943</v>
+        <v>1024340</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9789946139590372</v>
+        <v>0.978994613959037</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9694978616777824</v>
+        <v>0.9697734405624348</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9854808826088862</v>
+        <v>0.985862390981574</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>13342</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7176</v>
+        <v>6851</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>24958</v>
+        <v>25111</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.027611390419849</v>
+        <v>0.02761139041984899</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01485131983789049</v>
+        <v>0.0141779522255946</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05165105791468216</v>
+        <v>0.05196670596018044</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>13</v>
@@ -6265,19 +6265,19 @@
         <v>9331</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4917</v>
+        <v>4969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>16752</v>
+        <v>16538</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02205219497961506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01162109189351198</v>
+        <v>0.01174237234244654</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03958957157238216</v>
+        <v>0.03908315746774405</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>26</v>
@@ -6286,19 +6286,19 @@
         <v>22673</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>15312</v>
+        <v>14895</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>36328</v>
+        <v>37061</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02501601242502668</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01689409831133124</v>
+        <v>0.01643374033387624</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04008154075054688</v>
+        <v>0.04089020449190072</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>469870</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>458254</v>
+        <v>458101</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>476036</v>
+        <v>476361</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9723886095801511</v>
+        <v>0.9723886095801509</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9483489420853179</v>
+        <v>0.9480332940398193</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9851486801621095</v>
+        <v>0.9858220477744053</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>577</v>
@@ -6336,19 +6336,19 @@
         <v>413812</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>406391</v>
+        <v>406605</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>418226</v>
+        <v>418174</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9779478050203848</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9604104284276177</v>
+        <v>0.960916842532256</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.988378908106488</v>
+        <v>0.9882576276575534</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1045</v>
@@ -6357,19 +6357,19 @@
         <v>883682</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>870027</v>
+        <v>869294</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>891043</v>
+        <v>891460</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9749839875749734</v>
+        <v>0.9749839875749733</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9599184592494534</v>
+        <v>0.9591097955080992</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9831059016886688</v>
+        <v>0.9835662596661238</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>14595</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8081</v>
+        <v>8479</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24001</v>
+        <v>25123</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.03094712364037543</v>
+        <v>0.03094712364037542</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01713531157234263</v>
+        <v>0.01797848735932175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05089127776701707</v>
+        <v>0.05327109055274409</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6482,19 +6482,19 @@
         <v>8200</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>3503</v>
+        <v>3814</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20495</v>
+        <v>18528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04373172182596496</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01868380108783815</v>
+        <v>0.02034378440097637</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1093061043529512</v>
+        <v>0.09881620585020573</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>23</v>
@@ -6503,19 +6503,19 @@
         <v>22795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>14669</v>
+        <v>14641</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>36394</v>
+        <v>35816</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03458396891031174</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02225587098940326</v>
+        <v>0.02221293383321149</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05521759872255595</v>
+        <v>0.05434046348243849</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>457017</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>447611</v>
+        <v>446489</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>463531</v>
+        <v>463133</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9690528763596246</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9491087222329831</v>
+        <v>0.9467289094472559</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9828646884276574</v>
+        <v>0.9820215126406782</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>280</v>
@@ -6553,19 +6553,19 @@
         <v>179297</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>167002</v>
+        <v>168969</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>183994</v>
+        <v>183683</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.956268278174035</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8906938956470488</v>
+        <v>0.9011837941497942</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9813161989121619</v>
+        <v>0.9796562155990237</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>754</v>
@@ -6574,19 +6574,19 @@
         <v>636314</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>622715</v>
+        <v>623293</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>644440</v>
+        <v>644468</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9654160310896883</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.944782401277444</v>
+        <v>0.9456595365175621</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9777441290105969</v>
+        <v>0.9777870661667888</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>29405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>19882</v>
+        <v>19030</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>44146</v>
+        <v>43876</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02598010746278466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01756600842359363</v>
+        <v>0.01681314287089696</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0390032698135573</v>
+        <v>0.03876541293734642</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -6699,19 +6699,19 @@
         <v>19434</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13666</v>
+        <v>13255</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>27897</v>
+        <v>27528</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02256612168857319</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01586813005302578</v>
+        <v>0.01539157602540222</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03239300186224534</v>
+        <v>0.03196384135065652</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>58</v>
@@ -6720,19 +6720,19 @@
         <v>48840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>36942</v>
+        <v>36890</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>64137</v>
+        <v>65088</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02450490245876066</v>
+        <v>0.02450490245876067</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01853540851799785</v>
+        <v>0.01850938314351352</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03218022670169711</v>
+        <v>0.03265718517281316</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>1102438</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1087697</v>
+        <v>1087967</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1111961</v>
+        <v>1112813</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9740198925372153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9609967301864429</v>
+        <v>0.9612345870626537</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9824339915764064</v>
+        <v>0.9831868571291029</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1200</v>
@@ -6770,19 +6770,19 @@
         <v>841777</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>833314</v>
+        <v>833683</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>847545</v>
+        <v>847956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9774338783114268</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9676069981377547</v>
+        <v>0.9680361586493434</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9841318699469741</v>
+        <v>0.9846084239745978</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2290</v>
@@ -6791,19 +6791,19 @@
         <v>1944214</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1928917</v>
+        <v>1927966</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1956112</v>
+        <v>1956164</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9754950975412392</v>
+        <v>0.9754950975412394</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9678197732983027</v>
+        <v>0.9673428148271869</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9814645914820018</v>
+        <v>0.9814906168564865</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>15463</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8753</v>
+        <v>8641</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24781</v>
+        <v>25436</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.02722569580063965</v>
+        <v>0.02722569580063964</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01541112988637105</v>
+        <v>0.015213961762616</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04363087715538175</v>
+        <v>0.04478391650112474</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>63</v>
@@ -6916,19 +6916,19 @@
         <v>38276</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>29367</v>
+        <v>30100</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>47812</v>
+        <v>48715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04606790767090928</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0353460103263731</v>
+        <v>0.036227979073101</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05754577344765745</v>
+        <v>0.05863299706552262</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>78</v>
@@ -6937,19 +6937,19 @@
         <v>53739</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>41591</v>
+        <v>41829</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>68989</v>
+        <v>66497</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0384173599071391</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02973325562789005</v>
+        <v>0.02990312247066751</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04931984930062541</v>
+        <v>0.04753811906753358</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>552501</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>543183</v>
+        <v>542528</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>559211</v>
+        <v>559323</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9727743041993605</v>
+        <v>0.9727743041993603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9563691228446186</v>
+        <v>0.9552160834988752</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9845888701136294</v>
+        <v>0.9847860382373836</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1227</v>
@@ -6987,19 +6987,19 @@
         <v>792574</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>783038</v>
+        <v>782135</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>801483</v>
+        <v>800750</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9539320923290908</v>
+        <v>0.9539320923290907</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9424542265523426</v>
+        <v>0.9413670029344774</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9646539896736268</v>
+        <v>0.963772020926899</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1759</v>
@@ -7008,19 +7008,19 @@
         <v>1345075</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1329825</v>
+        <v>1332317</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1357223</v>
+        <v>1356985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9615826400928609</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9506801506993745</v>
+        <v>0.9524618809324663</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.97026674437211</v>
+        <v>0.9700968775293323</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>3028</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>553</v>
+        <v>666</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>10709</v>
+        <v>9654</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01276308028624243</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.002330301929757351</v>
+        <v>0.002808307032745208</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04514317680941451</v>
+        <v>0.04069404898805216</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -7133,19 +7133,19 @@
         <v>29637</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>21851</v>
+        <v>21435</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40849</v>
+        <v>41451</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03510371628121631</v>
+        <v>0.03510371628121632</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02588137039340545</v>
+        <v>0.0253880221168202</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04838311557679571</v>
+        <v>0.04909634832170895</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>47</v>
@@ -7154,19 +7154,19 @@
         <v>32665</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>23375</v>
+        <v>24207</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>45197</v>
+        <v>45611</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03020332242398244</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02161318406610838</v>
+        <v>0.02238256300926889</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04179051496852752</v>
+        <v>0.04217388513218576</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>234200</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>226519</v>
+        <v>227574</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>236675</v>
+        <v>236562</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9872369197137575</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9548568231905861</v>
+        <v>0.9593059510119476</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9976696980702425</v>
+        <v>0.9971916929672549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1115</v>
@@ -7204,19 +7204,19 @@
         <v>814644</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>803432</v>
+        <v>802830</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>822430</v>
+        <v>822846</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9648962837187836</v>
+        <v>0.9648962837187838</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9516168844232037</v>
+        <v>0.9509036516782918</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9741186296065943</v>
+        <v>0.9746119778831799</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1224</v>
@@ -7225,19 +7225,19 @@
         <v>1048844</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1036312</v>
+        <v>1035898</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1058134</v>
+        <v>1057302</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9697966775760178</v>
+        <v>0.9697966775760176</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9582094850314726</v>
+        <v>0.9578261148678142</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9783868159338924</v>
+        <v>0.9776174369907304</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>86703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>70414</v>
+        <v>70332</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>108123</v>
+        <v>109893</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02518631119671818</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02045451296777374</v>
+        <v>0.02043065745319923</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03140855512192196</v>
+        <v>0.0319226439347338</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>176</v>
@@ -7350,19 +7350,19 @@
         <v>115833</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>98602</v>
+        <v>98389</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>135389</v>
+        <v>135016</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.03186268767267286</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02712283490473166</v>
+        <v>0.02706427399868474</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0372418559668841</v>
+        <v>0.03713924004019214</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>261</v>
@@ -7371,19 +7371,19 @@
         <v>202537</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>175320</v>
+        <v>176821</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>228401</v>
+        <v>229052</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02861548640525015</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02477015215865116</v>
+        <v>0.02498227915707045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.03226967135548849</v>
+        <v>0.03236167940989384</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>3355773</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>3334353</v>
+        <v>3332583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3372062</v>
+        <v>3372144</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.9748136888032819</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.968591444878078</v>
+        <v>0.9680773560652661</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9795454870322263</v>
+        <v>0.9795693425468008</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>5068</v>
@@ -7421,19 +7421,19 @@
         <v>3519560</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>3500004</v>
+        <v>3500377</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3536791</v>
+        <v>3537004</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9681373123273274</v>
+        <v>0.9681373123273271</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.962758144033116</v>
+        <v>0.9628607599598079</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9728771650952683</v>
+        <v>0.9729357260013153</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>8283</v>
@@ -7442,19 +7442,19 @@
         <v>6875332</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>6849468</v>
+        <v>6848817</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>6902549</v>
+        <v>6901048</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9713845135947498</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9677303286445116</v>
+        <v>0.9676383205901062</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9752298478413489</v>
+        <v>0.9750177208429297</v>
       </c>
     </row>
     <row r="24">
